--- a/biology/Botanique/Passerina_(cépage)/Passerina_(cépage).xlsx
+++ b/biology/Botanique/Passerina_(cépage)/Passerina_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Passerina_(c%C3%A9page)</t>
+          <t>Passerina_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La  passerina est un cépage italien de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Passerina_(c%C3%A9page)</t>
+          <t>Passerina_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La passerina est un cépage de cuve et de table, dont la culture s'étend sur environ 1 160 hectares dans les Abruzzes, les Marches, l'Ombrie et le Latium.
 La passerina est recommandée dans les provinces d'Ancône, d'Ascoli Piceno, de Frosinone et de Macerata. Elle est autorisée en province de Teramo. Elle est classée cépage d'appoint en DOC, Controguerra et Falerio dei Colli Ascolani.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Passerina_(c%C3%A9page)</t>
+          <t>Passerina_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La passerina est connue localement sous les noms de cacciadebiti, caccione, camplese, corinthe blanc, pagadebit gentile, passerina bianca, scacciadebito, uva d'oro, trebbiano di Teramo, uva passa, uva passera.
 </t>
